--- a/策划用_配置表/weapon.xlsx
+++ b/策划用_配置表/weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfire_config_table\策划用_配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3AC4D7-DA53-4557-A0EA-3079337F657E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB4A37C-CFD2-4759-933A-AA40B40A1C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="210" windowWidth="35235" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="210" windowWidth="30075" windowHeight="20610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weapon" sheetId="1" r:id="rId1"/>
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
@@ -410,6 +410,10 @@
   </si>
   <si>
     <t>武器影响移速百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#射击速度每秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -963,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -978,9 +982,10 @@
     <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="12" max="12" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -994,7 +999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1008,14 +1013,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3"/>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1049,8 +1054,11 @@
       <c r="K4" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="L4" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>ROW(A5)-4</f>
         <v>1</v>
@@ -1067,10 +1075,14 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
+      <c r="L5" s="7">
+        <f t="shared" ref="L5:L13" si="0">E5/1</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f t="shared" ref="A6:A13" si="0">ROW(A6)-4</f>
+        <f t="shared" ref="A6:A13" si="1">ROW(A6)-4</f>
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1103,10 +1115,14 @@
       <c r="K6" s="9">
         <v>0.1</v>
       </c>
+      <c r="L6" s="5">
+        <f>1/E6</f>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1121,10 +1137,14 @@
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
+      <c r="L7" s="7">
+        <f t="shared" ref="L7:L13" si="2">E7/1</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1137,7 +1157,7 @@
         <v>1.6</v>
       </c>
       <c r="E8" s="9">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="9">
         <v>3.5</v>
@@ -1157,10 +1177,14 @@
       <c r="K8" s="9">
         <v>0.1</v>
       </c>
+      <c r="L8" s="5">
+        <f>1/E8</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1193,10 +1217,14 @@
       <c r="K9" s="9">
         <v>0.1</v>
       </c>
+      <c r="L9" s="5">
+        <f>1/E9</f>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1211,10 +1239,14 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
+      <c r="L10" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1247,10 +1279,14 @@
       <c r="K11" s="9">
         <v>0.1</v>
       </c>
+      <c r="L11" s="5">
+        <f>1/E11</f>
+        <v>0.90909090909090906</v>
+      </c>
     </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1283,10 +1319,14 @@
       <c r="K12" s="9">
         <v>0.1</v>
       </c>
+      <c r="L12" s="5">
+        <f>1/E12</f>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1301,6 +1341,10 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
